--- a/biology/Zoologie/Amphisbaena_hogei/Amphisbaena_hogei.xlsx
+++ b/biology/Zoologie/Amphisbaena_hogei/Amphisbaena_hogei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Amphisbaena hogei est une espèce d'amphisbènes de la famille des Amphisbaenidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amphisbaena hogei est une espèce d'amphisbènes de la famille des Amphisbaenidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Brésil[1]. Elle se rencontre dans les États de São Paulo, du Paraná et de Santa Catarina.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Brésil. Elle se rencontre dans les États de São Paulo, du Paraná et de Santa Catarina.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Alphonse Richard Hoge.
 </t>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Vanzolini, 1950 : Contribuiçoes ao conhecimento dos lagartos Brasileiros da familia Amphisbaenidae Gray, 1825. I. Sobre uma nova subspecies insular de Amphisbaena darwinii D. and B., 1839. Papéis Avulsos do Departamento de Zoologia, Säo Paulo, vol. 9, p. 69-77.</t>
         </is>
